--- a/Test1/Content/Excel/headerExcel.xlsx
+++ b/Test1/Content/Excel/headerExcel.xlsx
@@ -2,45 +2,1736 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="360" windowWidth="17955" windowHeight="11535"/>
+    <workbookView xWindow="630" yWindow="615" windowWidth="17895" windowHeight="10170"/>
   </bookViews>
   <sheets>
-    <sheet name="Header" sheetId="1" r:id="rId1"/>
+    <sheet name="CCU" sheetId="2" r:id="rId1"/>
+    <sheet name="Def_CCU" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
+  <si>
+    <t>CCU/16N Cardiology</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Objectives/Metrics</t>
+  </si>
+  <si>
+    <t>FY 10/11</t>
+  </si>
+  <si>
+    <t>FY 11/12</t>
+  </si>
+  <si>
+    <t>FY 12/13</t>
+  </si>
+  <si>
+    <t>FY 13 14 Performance</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Performance Threshold</t>
+  </si>
+  <si>
+    <t>Comparator</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>YTD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Access &amp; Efficiency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> • Initiative 1: Lasix protocol project. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> • Initiative 2: Improve flow out of CCU.</t>
+    </r>
+  </si>
+  <si>
+    <t>CCU Avoidable Days</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.61</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Oct-Mar</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.44</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.87</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>3.35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <t>ALOS/ELOS ratio - CCU</t>
+  </si>
+  <si>
+    <t>Hand Hygiene CCU / 16N combined1,2</t>
+  </si>
+  <si>
+    <t>Readmission within 30 days anywhere within MSH (%)</t>
+  </si>
+  <si>
+    <t>Med. Rec. upon discharge for targeted patients (%)2,4</t>
+  </si>
+  <si>
+    <t>Med. Rec. upon admission for targeted patients (%)2,4</t>
+  </si>
+  <si>
+    <t>Patient Satisfaction: Communication - Overall</t>
+  </si>
+  <si>
+    <t>Patient Satisfaction: Continuity &amp; Transition2,5</t>
+  </si>
+  <si>
+    <t>When to resume normal activity - CCU2,5</t>
+  </si>
+  <si>
+    <t>Did everything to control pain - CCU2,5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Financial Health</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> • Initiative 1: Understand the Costs of ICU for CHF QBP population in comparison to peers. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>________________________</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFC0C0C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> • Initiative 2: Improve flow through role of Resource Nurse and I.T. access to demand in ER</t>
+    </r>
+  </si>
+  <si>
+    <t>Avg. Variable Direct Cost SCU Cost/Case for CHF (HIG 196)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2410</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2206</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1494</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1604</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1312</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1680</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>$829 (10/11)</t>
+    </r>
+  </si>
+  <si>
+    <t>ER Wait Time to Inpatient Bed (from Disposition) CCU / 16N in hrs (90th %ile)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12.43</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤8.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.54</t>
+    </r>
+  </si>
+  <si>
+    <t>Telemetry patient ER Wait Time to Inpatient Bed (from Disposition) CCU / 16N in hrs (90th %ile)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13.54</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.09</t>
+    </r>
+  </si>
+  <si>
+    <t>Definition/Calculation/Notes</t>
+  </si>
+  <si>
+    <t>Target Rationale</t>
+  </si>
+  <si>
+    <t>Comparator Source</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Access &amp; Efficiency</t>
+    </r>
+  </si>
+  <si>
+    <t>Based on snapshot data from CCIS which includes both active and discharged patients and is therefore subject to change until all cases for that period are discharged.</t>
+  </si>
+  <si>
+    <t>See notes on metrics</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Acute typical LOS compared to the expected LOS as a percentage.  Acute LOS exludes ALC Days. Same methodology as LOS Dashboard (using Discharge Unit). All data before FY14/15 are regrouped to 2013 grouper. FY14/15 CMG year =2014.</t>
+  </si>
+  <si>
+    <t>In line with UCC Target</t>
+  </si>
+  <si>
+    <t>TCLHIN (Main Prov. Serv.) MSH value using Main Prov. Serv. 13/14 Sep = 82.8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quality &amp; Safety</t>
+    </r>
+  </si>
+  <si>
+    <t>" FY 12/13: Includes all 4 moments as per Infection Control Dashboard.</t>
+  </si>
+  <si>
+    <t>Readmission is based on discharge nursing units 16N, typical and long stay cases (Winrecs). Includes readmits to MSH for any urgent patient care within 30 days of discharge from index cases. Readmissions within the same day are included. Readmissions for discharges of the last reported month are now included as the population is based on Discharge Unit and not Team Assignment or Primary Provider Service.</t>
+  </si>
+  <si>
+    <t>TCLHIN (data source: CIHI portal)</t>
+  </si>
+  <si>
+    <t>Rate per patient discharges. First month of reporting is Oct 2011. Includes Med Rec done by pharmacists and MDs (without double counting).</t>
+  </si>
+  <si>
+    <t>≥ FY 12/13</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experience</t>
+    </r>
+  </si>
+  <si>
+    <t>% positive score from the NRC Picker Patient Satisfaction survey methodology.</t>
+  </si>
+  <si>
+    <t>TCLHIN 12 month period previous</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Financial Health</t>
+    </r>
+  </si>
+  <si>
+    <t>"Criteria for Total Cases: CMG+= '196' for GIM and Cardiology. Direct Cost includes 2 SCU units: ICU &amp; CCU. Results for Cardiology only: 10/11 = $3217, 11/12 = $3170</t>
+  </si>
+  <si>
+    <t>Time to IP Bed (from Disposition) 90th %ile in Hours (hh:mm)</t>
+  </si>
+  <si>
+    <t>P4R Agreement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urgent &amp; Critical Care </t>
+  </si>
+  <si>
+    <t>Portal data from the Canadian Institute for Health Information (CIHI) has been used to generate data within this report with acknowledgement to CIHI, the Ministry of Health and Long-Term Care (MOHLTC) and Stats Canada (as applicable). Views are not those of the acknowledged sources. Facility identifiable data other than Mount Sinai Hospital (MSH) is not to be published without the consent of that organization (except where reported at an aggregate level). As this is not a database supported by MSH, please demonstrate caution with use and interpretation of the information. MSH is not responsible for any changes derived from the source data/canned reports. Data may be subject to change.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>81.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>88.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>82.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>80</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>79.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>92.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>84.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤85</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>93.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>87.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Quality &amp; Safety</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> • Initiative 1: Palliative Care Co-management. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> • Initiative 2: Heart Failure education pathway and daily education to patients/families.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>68</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>76</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>84</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>82</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>79</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥ 81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>6.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>7.6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>9.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>13.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>11.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≤7.6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.36</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8.2 Feb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>55.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>90.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>88.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>94.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>93.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>96.6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>93.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥90.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>81.81</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>NA</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Experience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>__________</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> • Initiative 1: Palliative Care Co-managment. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> • Initiative 2: Shift Handover process. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>________________________</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_____</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> • Initiative 3: Consider Post Discharge Phonecall F/U post GIM Pilot.           </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>73.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>69</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>71</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>71.7</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>70.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>68.6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>67</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>69.6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥ 71.0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>63.9</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>69.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>68.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>72.8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>63.4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>66.1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>58.2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>65.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≥70.5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>63.45</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC0C0C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor rgb="FF003366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFC0C0C0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF007635"/>
+        <bgColor rgb="FF007635"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFFC000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,12 +1739,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +1822,272 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2552700" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2552700" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1333686" cy="390580"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="logoOPEO.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="209550" y="0"/>
+          <a:ext cx="1333686" cy="390580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1009791" cy="676369"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3" descr="Monthly.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="638175" y="9525"/>
+          <a:ext cx="1009791" cy="676369"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="809738" cy="781159"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4" descr="quaterly.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="733425" y="9525"/>
+          <a:ext cx="809738" cy="781159"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1524213" cy="771633"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5" descr="na.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="9525"/>
+          <a:ext cx="1524213" cy="771633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2229161" cy="571580"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6" descr="target.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="9525"/>
+          <a:ext cx="2229161" cy="571580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2552700" cy="514350"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="logo.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="2552700" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2038350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1333686" cy="390580"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="logoOPEO.png"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2038350" y="0"/>
+          <a:ext cx="1333686" cy="390580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -143,7 +2165,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -178,7 +2199,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -355,26 +2375,989 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B10" sqref="A10:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" customWidth="1"/>
+    <col min="3" max="15" width="11.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+    </row>
+    <row r="5" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" ht="17.25" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>4</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>5</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="I14" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="J14" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>6</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>7</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>9</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddHeader>&amp;L&amp;G&amp;C1&amp;R&amp;G</oddHeader>
-    <oddFooter>&amp;L1&amp;C1&amp;R1</oddFooter>
-  </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
+  <mergeCells count="16">
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="A11:M11"/>
+    <mergeCell ref="A16:M16"/>
+    <mergeCell ref="A21:M21"/>
+    <mergeCell ref="A25:M25"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0" bottom="0.5" header="0" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.5703125" customWidth="1"/>
+    <col min="3" max="3" width="100.5703125" customWidth="1"/>
+    <col min="4" max="5" width="50.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" ht="51" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>8</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>12</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>13</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A25:E25"/>
+  </mergeCells>
+  <pageMargins left="0.5" right="0.5" top="0" bottom="0.5" header="0" footer="0.3"/>
+  <pageSetup paperSize="5" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>